--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.195614</v>
+        <v>47.25342666666666</v>
       </c>
       <c r="H2">
-        <v>147.586842</v>
+        <v>141.76028</v>
       </c>
       <c r="I2">
-        <v>0.8724243622956617</v>
+        <v>0.7256581002375004</v>
       </c>
       <c r="J2">
-        <v>0.8724243622956616</v>
+        <v>0.7256581002375005</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.105980333333334</v>
+        <v>6.577645333333334</v>
       </c>
       <c r="N2">
-        <v>15.317941</v>
+        <v>19.732936</v>
       </c>
       <c r="O2">
-        <v>0.04494800244635684</v>
+        <v>0.05888974044969256</v>
       </c>
       <c r="P2">
-        <v>0.04494800244635684</v>
+        <v>0.05888974044969258</v>
       </c>
       <c r="Q2">
-        <v>251.191837570258</v>
+        <v>310.8162813980089</v>
       </c>
       <c r="R2">
-        <v>2260.726538132322</v>
+        <v>2797.34653258208</v>
       </c>
       <c r="S2">
-        <v>0.03921373237072671</v>
+        <v>0.04273381717820339</v>
       </c>
       <c r="T2">
-        <v>0.0392137323707267</v>
+        <v>0.0427338171782034</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.195614</v>
+        <v>47.25342666666666</v>
       </c>
       <c r="H3">
-        <v>147.586842</v>
+        <v>141.76028</v>
       </c>
       <c r="I3">
-        <v>0.8724243622956617</v>
+        <v>0.7256581002375004</v>
       </c>
       <c r="J3">
-        <v>0.8724243622956616</v>
+        <v>0.7256581002375005</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>278.476586</v>
       </c>
       <c r="O3">
-        <v>0.8171441754985934</v>
+        <v>0.8310681122594473</v>
       </c>
       <c r="P3">
-        <v>0.8171441754985934</v>
+        <v>0.8310681122594474</v>
       </c>
       <c r="Q3">
-        <v>4566.608877631268</v>
+        <v>4386.324311644898</v>
       </c>
       <c r="R3">
-        <v>41099.47989868141</v>
+        <v>39476.91880480408</v>
       </c>
       <c r="S3">
-        <v>0.7128964862129746</v>
+        <v>0.6030713075101563</v>
       </c>
       <c r="T3">
-        <v>0.7128964862129745</v>
+        <v>0.6030713075101565</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.195614</v>
+        <v>47.25342666666666</v>
       </c>
       <c r="H4">
-        <v>147.586842</v>
+        <v>141.76028</v>
       </c>
       <c r="I4">
-        <v>0.8724243622956617</v>
+        <v>0.7256581002375004</v>
       </c>
       <c r="J4">
-        <v>0.8724243622956616</v>
+        <v>0.7256581002375005</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.04351533333333333</v>
+        <v>0.17749</v>
       </c>
       <c r="N4">
-        <v>0.130546</v>
+        <v>0.53247</v>
       </c>
       <c r="O4">
-        <v>0.0003830659699865731</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="P4">
-        <v>0.0003830659699865732</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="Q4">
-        <v>2.140763541748</v>
+        <v>8.387010699066666</v>
       </c>
       <c r="R4">
-        <v>19.266871875732</v>
+        <v>75.48309629159999</v>
       </c>
       <c r="S4">
-        <v>0.0003341960845827051</v>
+        <v>0.00115312164560195</v>
       </c>
       <c r="T4">
-        <v>0.0003341960845827052</v>
+        <v>0.00115312164560195</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>49.195614</v>
+        <v>47.25342666666666</v>
       </c>
       <c r="H5">
-        <v>147.586842</v>
+        <v>141.76028</v>
       </c>
       <c r="I5">
-        <v>0.8724243622956617</v>
+        <v>0.7256581002375004</v>
       </c>
       <c r="J5">
-        <v>0.8724243622956616</v>
+        <v>0.7256581002375005</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.62246733333333</v>
+        <v>12.09091866666667</v>
       </c>
       <c r="N5">
-        <v>46.867402</v>
+        <v>36.272756</v>
       </c>
       <c r="O5">
-        <v>0.1375247560850632</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="P5">
-        <v>0.1375247560850632</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="Q5">
-        <v>768.556872658276</v>
+        <v>571.3373385479645</v>
       </c>
       <c r="R5">
-        <v>6917.011853924483</v>
+        <v>5142.03604693168</v>
       </c>
       <c r="S5">
-        <v>0.1199799476273777</v>
+        <v>0.07855259467995943</v>
       </c>
       <c r="T5">
-        <v>0.1199799476273777</v>
+        <v>0.07855259467995947</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>47.25342666666666</v>
+      </c>
+      <c r="H6">
+        <v>141.76028</v>
+      </c>
+      <c r="I6">
+        <v>0.7256581002375004</v>
+      </c>
+      <c r="J6">
+        <v>0.7256581002375005</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G6">
-        <v>0.05229733333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.156892</v>
-      </c>
-      <c r="I6">
-        <v>0.0009274295810821058</v>
-      </c>
-      <c r="J6">
-        <v>0.0009274295810821058</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>5.105980333333334</v>
+        <v>0.02266633333333333</v>
       </c>
       <c r="N6">
-        <v>15.317941</v>
+        <v>0.067999</v>
       </c>
       <c r="O6">
-        <v>0.04494800244635684</v>
+        <v>0.0002029319641455607</v>
       </c>
       <c r="P6">
-        <v>0.04494800244635684</v>
+        <v>0.0002029319641455608</v>
       </c>
       <c r="Q6">
-        <v>0.2670291554857778</v>
+        <v>1.071061919968889</v>
       </c>
       <c r="R6">
-        <v>2.403262399372</v>
+        <v>9.63955727972</v>
       </c>
       <c r="S6">
-        <v>4.168610707930219E-05</v>
+        <v>0.0001472592235793321</v>
       </c>
       <c r="T6">
-        <v>4.168610707930219E-05</v>
+        <v>0.0001472592235793322</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -856,10 +856,10 @@
         <v>0.156892</v>
       </c>
       <c r="I7">
-        <v>0.0009274295810821058</v>
+        <v>0.0008031160114981568</v>
       </c>
       <c r="J7">
-        <v>0.0009274295810821058</v>
+        <v>0.0008031160114981569</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>92.82552866666667</v>
+        <v>6.577645333333334</v>
       </c>
       <c r="N7">
-        <v>278.476586</v>
+        <v>19.732936</v>
       </c>
       <c r="O7">
-        <v>0.8171441754985934</v>
+        <v>0.05888974044969256</v>
       </c>
       <c r="P7">
-        <v>0.8171441754985934</v>
+        <v>0.05888974044969258</v>
       </c>
       <c r="Q7">
-        <v>4.854527614523556</v>
+        <v>0.3439933105457778</v>
       </c>
       <c r="R7">
-        <v>43.690748530712</v>
+        <v>3.095939794912</v>
       </c>
       <c r="S7">
-        <v>0.0007578436803663432</v>
+        <v>4.729529346811876E-05</v>
       </c>
       <c r="T7">
-        <v>0.0007578436803663432</v>
+        <v>4.729529346811878E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -918,40 +918,40 @@
         <v>0.156892</v>
       </c>
       <c r="I8">
-        <v>0.0009274295810821058</v>
+        <v>0.0008031160114981568</v>
       </c>
       <c r="J8">
-        <v>0.0009274295810821058</v>
+        <v>0.0008031160114981569</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.04351533333333333</v>
+        <v>92.82552866666667</v>
       </c>
       <c r="N8">
-        <v>0.130546</v>
+        <v>278.476586</v>
       </c>
       <c r="O8">
-        <v>0.0003830659699865731</v>
+        <v>0.8310681122594473</v>
       </c>
       <c r="P8">
-        <v>0.0003830659699865732</v>
+        <v>0.8310681122594474</v>
       </c>
       <c r="Q8">
-        <v>0.002275735892444444</v>
+        <v>4.854527614523556</v>
       </c>
       <c r="R8">
-        <v>0.020481623032</v>
+        <v>43.690748530712</v>
       </c>
       <c r="S8">
-        <v>3.55266712071458E-07</v>
+        <v>0.0006674441076011098</v>
       </c>
       <c r="T8">
-        <v>3.552667120714581E-07</v>
+        <v>0.00066744410760111</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -980,45 +980,45 @@
         <v>0.156892</v>
       </c>
       <c r="I9">
-        <v>0.0009274295810821058</v>
+        <v>0.0008031160114981568</v>
       </c>
       <c r="J9">
-        <v>0.0009274295810821058</v>
+        <v>0.0008031160114981569</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>15.62246733333333</v>
+        <v>0.17749</v>
       </c>
       <c r="N9">
-        <v>46.867402</v>
+        <v>0.53247</v>
       </c>
       <c r="O9">
-        <v>0.1375247560850632</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="P9">
-        <v>0.1375247560850632</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="Q9">
-        <v>0.8170133816204445</v>
+        <v>0.009282253693333334</v>
       </c>
       <c r="R9">
-        <v>7.353120434584</v>
+        <v>0.08354028324</v>
       </c>
       <c r="S9">
-        <v>0.000127544526924389</v>
+        <v>1.276207702339337E-06</v>
       </c>
       <c r="T9">
-        <v>0.000127544526924389</v>
+        <v>1.276207702339338E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,25 +1027,25 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.896931</v>
+        <v>0.05229733333333333</v>
       </c>
       <c r="H10">
-        <v>5.690793</v>
+        <v>0.156892</v>
       </c>
       <c r="I10">
-        <v>0.03363976345521111</v>
+        <v>0.0008031160114981568</v>
       </c>
       <c r="J10">
-        <v>0.0336397634552111</v>
+        <v>0.0008031160114981569</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.105980333333334</v>
+        <v>12.09091866666667</v>
       </c>
       <c r="N10">
-        <v>15.317941</v>
+        <v>36.272756</v>
       </c>
       <c r="O10">
-        <v>0.04494800244635684</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="P10">
-        <v>0.04494800244635684</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="Q10">
-        <v>9.685692379690336</v>
+        <v>0.6323228038168889</v>
       </c>
       <c r="R10">
-        <v>87.17123141721301</v>
+        <v>5.690905234352</v>
       </c>
       <c r="S10">
-        <v>0.001512040170079694</v>
+        <v>8.693742481693883E-05</v>
       </c>
       <c r="T10">
-        <v>0.001512040170079694</v>
+        <v>8.693742481693885E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.896931</v>
+        <v>0.05229733333333333</v>
       </c>
       <c r="H11">
-        <v>5.690793</v>
+        <v>0.156892</v>
       </c>
       <c r="I11">
-        <v>0.03363976345521111</v>
+        <v>0.0008031160114981568</v>
       </c>
       <c r="J11">
-        <v>0.0336397634552111</v>
+        <v>0.0008031160114981569</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>92.82552866666667</v>
+        <v>0.02266633333333333</v>
       </c>
       <c r="N11">
-        <v>278.476586</v>
+        <v>0.067999</v>
       </c>
       <c r="O11">
-        <v>0.8171441754985934</v>
+        <v>0.0002029319641455607</v>
       </c>
       <c r="P11">
-        <v>0.8171441754985934</v>
+        <v>0.0002029319641455608</v>
       </c>
       <c r="Q11">
-        <v>176.0836229191887</v>
+        <v>0.001185388789777778</v>
       </c>
       <c r="R11">
-        <v>1584.752606272698</v>
+        <v>0.010668499108</v>
       </c>
       <c r="S11">
-        <v>0.02748853677257619</v>
+        <v>1.629779096500697E-07</v>
       </c>
       <c r="T11">
-        <v>0.02748853677257619</v>
+        <v>1.629779096500697E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.896931</v>
+        <v>6.996562666666667</v>
       </c>
       <c r="H12">
-        <v>5.690793</v>
+        <v>20.989688</v>
       </c>
       <c r="I12">
-        <v>0.03363976345521111</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="J12">
-        <v>0.0336397634552111</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.04351533333333333</v>
+        <v>6.577645333333334</v>
       </c>
       <c r="N12">
-        <v>0.130546</v>
+        <v>19.732936</v>
       </c>
       <c r="O12">
-        <v>0.0003830659699865731</v>
+        <v>0.05888974044969256</v>
       </c>
       <c r="P12">
-        <v>0.0003830659699865732</v>
+        <v>0.05888974044969258</v>
       </c>
       <c r="Q12">
-        <v>0.08254558477533333</v>
+        <v>46.02090777377423</v>
       </c>
       <c r="R12">
-        <v>0.742910262978</v>
+        <v>414.1881699639681</v>
       </c>
       <c r="S12">
-        <v>1.288624861808932E-05</v>
+        <v>0.006327368213575268</v>
       </c>
       <c r="T12">
-        <v>1.288624861808932E-05</v>
+        <v>0.006327368213575269</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.896931</v>
+        <v>6.996562666666667</v>
       </c>
       <c r="H13">
-        <v>5.690793</v>
+        <v>20.989688</v>
       </c>
       <c r="I13">
-        <v>0.03363976345521111</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="J13">
-        <v>0.0336397634552111</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.62246733333333</v>
+        <v>92.82552866666667</v>
       </c>
       <c r="N13">
-        <v>46.867402</v>
+        <v>278.476586</v>
       </c>
       <c r="O13">
-        <v>0.1375247560850632</v>
+        <v>0.8310681122594473</v>
       </c>
       <c r="P13">
-        <v>0.1375247560850632</v>
+        <v>0.8310681122594474</v>
       </c>
       <c r="Q13">
-        <v>29.63474258108733</v>
+        <v>649.4596283827965</v>
       </c>
       <c r="R13">
-        <v>266.712683229786</v>
+        <v>5845.136655445168</v>
       </c>
       <c r="S13">
-        <v>0.004626300263937131</v>
+        <v>0.08929354954991793</v>
       </c>
       <c r="T13">
-        <v>0.00462630026393713</v>
+        <v>0.08929354954991794</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,61 +1284,61 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.197513666666667</v>
+        <v>6.996562666666667</v>
       </c>
       <c r="H14">
-        <v>6.592541</v>
+        <v>20.989688</v>
       </c>
       <c r="I14">
-        <v>0.03897023135594298</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="J14">
-        <v>0.03897023135594298</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>5.105980333333334</v>
+        <v>0.17749</v>
       </c>
       <c r="N14">
-        <v>15.317941</v>
+        <v>0.53247</v>
       </c>
       <c r="O14">
-        <v>0.04494800244635684</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="P14">
-        <v>0.04494800244635684</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="Q14">
-        <v>11.22046156423122</v>
+        <v>1.241819907706667</v>
       </c>
       <c r="R14">
-        <v>100.984154078081</v>
+        <v>11.17637916936</v>
       </c>
       <c r="S14">
-        <v>0.001751634054322017</v>
+        <v>0.0001707365671627589</v>
       </c>
       <c r="T14">
-        <v>0.001751634054322017</v>
+        <v>0.0001707365671627589</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.197513666666667</v>
+        <v>6.996562666666667</v>
       </c>
       <c r="H15">
-        <v>6.592541</v>
+        <v>20.989688</v>
       </c>
       <c r="I15">
-        <v>0.03897023135594298</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="J15">
-        <v>0.03897023135594298</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>92.82552866666667</v>
+        <v>12.09091866666667</v>
       </c>
       <c r="N15">
-        <v>278.476586</v>
+        <v>36.272756</v>
       </c>
       <c r="O15">
-        <v>0.8171441754985934</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="P15">
-        <v>0.8171441754985934</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="Q15">
-        <v>203.9853678605585</v>
+        <v>84.59487014890311</v>
       </c>
       <c r="R15">
-        <v>1835.868310745026</v>
+        <v>761.3538313401281</v>
       </c>
       <c r="S15">
-        <v>0.03184429757034146</v>
+        <v>0.01163086341197131</v>
       </c>
       <c r="T15">
-        <v>0.03184429757034146</v>
+        <v>0.01163086341197132</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.197513666666667</v>
+        <v>6.996562666666667</v>
       </c>
       <c r="H16">
-        <v>6.592541</v>
+        <v>20.989688</v>
       </c>
       <c r="I16">
-        <v>0.03897023135594298</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="J16">
-        <v>0.03897023135594298</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.04351533333333333</v>
+        <v>0.02266633333333333</v>
       </c>
       <c r="N16">
-        <v>0.130546</v>
+        <v>0.067999</v>
       </c>
       <c r="O16">
-        <v>0.0003830659699865731</v>
+        <v>0.0002029319641455607</v>
       </c>
       <c r="P16">
-        <v>0.0003830659699865732</v>
+        <v>0.0002029319641455608</v>
       </c>
       <c r="Q16">
-        <v>0.09562553970955555</v>
+        <v>0.1585864215902222</v>
       </c>
       <c r="R16">
-        <v>0.860629857386</v>
+        <v>1.427277794312</v>
       </c>
       <c r="S16">
-        <v>1.492816947496547E-05</v>
+        <v>2.18038872246332E-05</v>
       </c>
       <c r="T16">
-        <v>1.492816947496547E-05</v>
+        <v>2.180388722463321E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.197513666666667</v>
+        <v>2.605199666666667</v>
       </c>
       <c r="H17">
-        <v>6.592541</v>
+        <v>7.815599000000001</v>
       </c>
       <c r="I17">
-        <v>0.03897023135594298</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="J17">
-        <v>0.03897023135594298</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,33 +1488,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.62246733333333</v>
+        <v>6.577645333333334</v>
       </c>
       <c r="N17">
-        <v>46.867402</v>
+        <v>19.732936</v>
       </c>
       <c r="O17">
-        <v>0.1375247560850632</v>
+        <v>0.05888974044969256</v>
       </c>
       <c r="P17">
-        <v>0.1375247560850632</v>
+        <v>0.05888974044969258</v>
       </c>
       <c r="Q17">
-        <v>34.33058547205356</v>
+        <v>17.13607942985156</v>
       </c>
       <c r="R17">
-        <v>308.975269248482</v>
+        <v>154.224714868664</v>
       </c>
       <c r="S17">
-        <v>0.005359371561804541</v>
+        <v>0.002356022284973967</v>
       </c>
       <c r="T17">
-        <v>0.005359371561804541</v>
+        <v>0.002356022284973967</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.047190333333333</v>
+        <v>2.605199666666667</v>
       </c>
       <c r="H18">
-        <v>9.141571000000001</v>
+        <v>7.815599000000001</v>
       </c>
       <c r="I18">
-        <v>0.05403821331210213</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="J18">
-        <v>0.05403821331210213</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.105980333333334</v>
+        <v>92.82552866666667</v>
       </c>
       <c r="N18">
-        <v>15.317941</v>
+        <v>278.476586</v>
       </c>
       <c r="O18">
-        <v>0.04494800244635684</v>
+        <v>0.8310681122594473</v>
       </c>
       <c r="P18">
-        <v>0.04494800244635684</v>
+        <v>0.8310681122594474</v>
       </c>
       <c r="Q18">
-        <v>15.55889391392345</v>
+        <v>241.8290363405572</v>
       </c>
       <c r="R18">
-        <v>140.030045225311</v>
+        <v>2176.461327065014</v>
       </c>
       <c r="S18">
-        <v>0.002428909744149119</v>
+        <v>0.03324883040513937</v>
       </c>
       <c r="T18">
-        <v>0.002428909744149119</v>
+        <v>0.03324883040513938</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,51 +1594,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.047190333333333</v>
+        <v>2.605199666666667</v>
       </c>
       <c r="H19">
-        <v>9.141571000000001</v>
+        <v>7.815599000000001</v>
       </c>
       <c r="I19">
-        <v>0.05403821331210213</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="J19">
-        <v>0.05403821331210213</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>92.82552866666667</v>
+        <v>0.17749</v>
       </c>
       <c r="N19">
-        <v>278.476586</v>
+        <v>0.53247</v>
       </c>
       <c r="O19">
-        <v>0.8171441754985934</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="P19">
-        <v>0.8171441754985934</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="Q19">
-        <v>282.8570536396229</v>
+        <v>0.4623968888366667</v>
       </c>
       <c r="R19">
-        <v>2545.713482756606</v>
+        <v>4.16157199953</v>
       </c>
       <c r="S19">
-        <v>0.04415701126233481</v>
+        <v>6.357448207808955E-05</v>
       </c>
       <c r="T19">
-        <v>0.04415701126233481</v>
+        <v>6.357448207808955E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,108 +1656,418 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.047190333333333</v>
+        <v>2.605199666666667</v>
       </c>
       <c r="H20">
-        <v>9.141571000000001</v>
+        <v>7.815599000000001</v>
       </c>
       <c r="I20">
-        <v>0.05403821331210213</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="J20">
-        <v>0.05403821331210213</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.04351533333333333</v>
+        <v>12.09091866666667</v>
       </c>
       <c r="N20">
-        <v>0.130546</v>
+        <v>36.272756</v>
       </c>
       <c r="O20">
-        <v>0.0003830659699865731</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="P20">
-        <v>0.0003830659699865732</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="Q20">
-        <v>0.1325995030851111</v>
+        <v>31.49925728009378</v>
       </c>
       <c r="R20">
-        <v>1.193395527766</v>
+        <v>283.493315520844</v>
       </c>
       <c r="S20">
-        <v>2.070020059874175E-05</v>
+        <v>0.004330801127284007</v>
       </c>
       <c r="T20">
-        <v>2.070020059874176E-05</v>
+        <v>0.004330801127284008</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.605199666666667</v>
+      </c>
+      <c r="H21">
+        <v>7.815599000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.0400073470689964</v>
+      </c>
+      <c r="J21">
+        <v>0.0400073470689964</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.02266633333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.067999</v>
+      </c>
+      <c r="O21">
+        <v>0.0002029319641455607</v>
+      </c>
+      <c r="P21">
+        <v>0.0002029319641455608</v>
+      </c>
+      <c r="Q21">
+        <v>0.05905032404455556</v>
+      </c>
+      <c r="R21">
+        <v>0.5314529164010001</v>
+      </c>
+      <c r="S21">
+        <v>8.118769520964583E-06</v>
+      </c>
+      <c r="T21">
+        <v>8.118769520964583E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8.210544666666665</v>
+      </c>
+      <c r="H22">
+        <v>24.631634</v>
+      </c>
+      <c r="I22">
+        <v>0.126087115052153</v>
+      </c>
+      <c r="J22">
+        <v>0.126087115052153</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.577645333333334</v>
+      </c>
+      <c r="N22">
+        <v>19.732936</v>
+      </c>
+      <c r="O22">
+        <v>0.05888974044969256</v>
+      </c>
+      <c r="P22">
+        <v>0.05888974044969258</v>
+      </c>
+      <c r="Q22">
+        <v>54.00605081082489</v>
+      </c>
+      <c r="R22">
+        <v>486.054457297424</v>
+      </c>
+      <c r="S22">
+        <v>0.007425237479471815</v>
+      </c>
+      <c r="T22">
+        <v>0.007425237479471818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8.210544666666665</v>
+      </c>
+      <c r="H23">
+        <v>24.631634</v>
+      </c>
+      <c r="I23">
+        <v>0.126087115052153</v>
+      </c>
+      <c r="J23">
+        <v>0.126087115052153</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>92.82552866666667</v>
+      </c>
+      <c r="N23">
+        <v>278.476586</v>
+      </c>
+      <c r="O23">
+        <v>0.8310681122594473</v>
+      </c>
+      <c r="P23">
+        <v>0.8310681122594474</v>
+      </c>
+      <c r="Q23">
+        <v>762.1481493246137</v>
+      </c>
+      <c r="R23">
+        <v>6859.333343921523</v>
+      </c>
+      <c r="S23">
+        <v>0.1047869806866325</v>
+      </c>
+      <c r="T23">
+        <v>0.1047869806866326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>8.210544666666665</v>
+      </c>
+      <c r="H24">
+        <v>24.631634</v>
+      </c>
+      <c r="I24">
+        <v>0.126087115052153</v>
+      </c>
+      <c r="J24">
+        <v>0.126087115052153</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.17749</v>
+      </c>
+      <c r="N24">
+        <v>0.53247</v>
+      </c>
+      <c r="O24">
+        <v>0.001589070176746522</v>
+      </c>
+      <c r="P24">
+        <v>0.001589070176746522</v>
+      </c>
+      <c r="Q24">
+        <v>1.457289572886667</v>
+      </c>
+      <c r="R24">
+        <v>13.11560615598</v>
+      </c>
+      <c r="S24">
+        <v>0.0002003612742013838</v>
+      </c>
+      <c r="T24">
+        <v>0.0002003612742013838</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>3.047190333333333</v>
-      </c>
-      <c r="H21">
-        <v>9.141571000000001</v>
-      </c>
-      <c r="I21">
-        <v>0.05403821331210213</v>
-      </c>
-      <c r="J21">
-        <v>0.05403821331210213</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>15.62246733333333</v>
-      </c>
-      <c r="N21">
-        <v>46.867402</v>
-      </c>
-      <c r="O21">
-        <v>0.1375247560850632</v>
-      </c>
-      <c r="P21">
-        <v>0.1375247560850632</v>
-      </c>
-      <c r="Q21">
-        <v>47.60463144094911</v>
-      </c>
-      <c r="R21">
-        <v>428.441682968542</v>
-      </c>
-      <c r="S21">
-        <v>0.007431592105019461</v>
-      </c>
-      <c r="T21">
-        <v>0.007431592105019461</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.210544666666665</v>
+      </c>
+      <c r="H25">
+        <v>24.631634</v>
+      </c>
+      <c r="I25">
+        <v>0.126087115052153</v>
+      </c>
+      <c r="J25">
+        <v>0.126087115052153</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.09091866666667</v>
+      </c>
+      <c r="N25">
+        <v>36.272756</v>
+      </c>
+      <c r="O25">
+        <v>0.108250145149968</v>
+      </c>
+      <c r="P25">
+        <v>0.108250145149968</v>
+      </c>
+      <c r="Q25">
+        <v>99.27302777370043</v>
+      </c>
+      <c r="R25">
+        <v>893.457249963304</v>
+      </c>
+      <c r="S25">
+        <v>0.01364894850593627</v>
+      </c>
+      <c r="T25">
+        <v>0.01364894850593628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>8.210544666666665</v>
+      </c>
+      <c r="H26">
+        <v>24.631634</v>
+      </c>
+      <c r="I26">
+        <v>0.126087115052153</v>
+      </c>
+      <c r="J26">
+        <v>0.126087115052153</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.02266633333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.067999</v>
+      </c>
+      <c r="O26">
+        <v>0.0002029319641455607</v>
+      </c>
+      <c r="P26">
+        <v>0.0002029319641455608</v>
+      </c>
+      <c r="Q26">
+        <v>0.1861029422628889</v>
+      </c>
+      <c r="R26">
+        <v>1.674926480366</v>
+      </c>
+      <c r="S26">
+        <v>2.55871059109807E-05</v>
+      </c>
+      <c r="T26">
+        <v>2.558710591098071E-05</v>
       </c>
     </row>
   </sheetData>
